--- a/me/2.typescript/4.oop.xlsx
+++ b/me/2.typescript/4.oop.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\2.typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B419C525-029F-4513-A9F0-6C9C5C58F413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6A855C-0058-4298-8C9B-C71F1C2EED99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Class 1" sheetId="1" r:id="rId1"/>
     <sheet name="Class 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Static" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="144">
   <si>
     <t>構成</t>
   </si>
@@ -364,6 +365,168 @@
   </si>
   <si>
     <t>        &lt;script src="./mjs/05_oop/01-class-02.js&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>02-static.ts</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\ts\05_oop\02-static.ts</t>
+  </si>
+  <si>
+    <t>enum TaskState { Created = 100, Active, InActive, Proccess,     Finish }</t>
+  </si>
+  <si>
+    <t>        TaskService.tasks = tasks;</t>
+  </si>
+  <si>
+    <t>        return TaskService.tasks;</t>
+  </si>
+  <si>
+    <t>        for(let task of TaskService.tasks){</t>
+  </si>
+  <si>
+    <t>            console.log(`${TaskService.username} - ${task.name}`);</t>
+  </si>
+  <si>
+    <t>        }</t>
+  </si>
+  <si>
+    <t>TaskService.tasks = [</t>
+  </si>
+  <si>
+    <t>    {id: 1, name: "Coding"},</t>
+  </si>
+  <si>
+    <t>    {id: 2, name: "Study ES6"},</t>
+  </si>
+  <si>
+    <t>TaskService.showItemsInfo();</t>
+  </si>
+  <si>
+    <t>console.log(TaskService.username);</t>
+  </si>
+  <si>
+    <t>02-static.js</t>
+  </si>
+  <si>
+    <t>        &lt;script src="./mjs/05_oop/02-static.js&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\mjs\05_oop\02-static.js</t>
+  </si>
+  <si>
+    <t>    static showItemsInfo() {</t>
+  </si>
+  <si>
+    <t>        for (let task of TaskService.tasks) {</t>
+  </si>
+  <si>
+    <t>TaskService.username = "peter";</t>
+  </si>
+  <si>
+    <t>    { id: 1, name: "Coding" },</t>
+  </si>
+  <si>
+    <t>    { id: 2, name: "Study ES6" },</t>
+  </si>
+  <si>
+    <t>comment code</t>
+  </si>
+  <si>
+    <t>new, phần 02-static.ts sẽ sử dụng lại code của 01-class-02.ts nên phải comment lại toàn bộ code của 01-class-02.ts</t>
+  </si>
+  <si>
+    <t>/*</t>
+  </si>
+  <si>
+    <t>*/</t>
+  </si>
+  <si>
+    <t>Xây dựng phần quản lý công việc cho 1 người dùng nào đó</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>static</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> username: string = "peter";</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>static</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tasks: TaskInterface[];</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">static </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>showItemsInfo() : void {</t>
+    </r>
+  </si>
+  <si>
+    <t>Khai báo từ khóa static này thì có thể truy cập trực tiếp vào thuộc tính username thông qua class TaskService mà ko cần phải khởi tạo đối tượng</t>
+  </si>
+  <si>
+    <t>Khai báo từ khóa static này thì có thể truy cập trực tiếp vào phương thức  showItemsInfo thông qua class TaskService mà ko cần phải khởi tạo đối tượng</t>
+  </si>
+  <si>
+    <t>Phương thức showItemsInfo kiểu static nên bên trong phương thức ko được dùng this mà phải dùng tên Class TaskService để lấy giá trị tasks, do đó tasks cũng phải thuộc kiểu static</t>
   </si>
 </sst>
 </file>
@@ -1510,6 +1673,576 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>256538</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>133244</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9BA9095-17E0-8C57-85D8-1161CCD53C66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="13382625"/>
+          <a:ext cx="5095238" cy="847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED78D486-B25E-C80D-67F2-DD11B412B6B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1362075" y="14268450"/>
+          <a:ext cx="1733550" cy="2952750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26F47B36-AF38-18C4-BE89-49027CCA30DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2847975" y="17297400"/>
+          <a:ext cx="466725" cy="3162300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97135C1A-B8EE-8A28-13A5-EA6E72CA2E9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2619375" y="20535900"/>
+          <a:ext cx="38100" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5EC3688-EBA2-4406-672E-4B5A1020FA30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2857500" y="4381500"/>
+          <a:ext cx="2638425" cy="8658225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{413B682E-3AD9-ECCE-6F24-0492E1EA3172}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2095500" y="7410450"/>
+          <a:ext cx="3429000" cy="5048250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{375B5A89-60BD-6351-F168-06C23B9D72A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1409700" y="9686925"/>
+          <a:ext cx="4105275" cy="2390775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1805A0F4-3C68-1F08-9C64-44F8C1E0B5F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1038225" y="7772400"/>
+          <a:ext cx="12458700" cy="1990725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>475590</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>171176</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8943052C-0EEC-9AF4-036E-4763EAF7D48E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172200" y="10363200"/>
+          <a:ext cx="5276190" cy="2190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71620D0C-CBFA-DAE1-782B-C46E4A674B2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2438400" y="11410950"/>
+          <a:ext cx="4095750" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B494E638-289B-A4CE-D086-98E18C12A3E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2790825" y="11858625"/>
+          <a:ext cx="3762375" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3036,8 +3769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E35A0B-85C0-41D6-BA8B-0610346B5FE2}">
   <dimension ref="A3:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126:H132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4739,4 +5472,1864 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA2123B-9C7B-4D43-8CAB-019E6E90E4D9}">
+  <dimension ref="A2:J184"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="15"/>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="15"/>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="15"/>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="18"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="5"/>
+      <c r="I39" t="s">
+        <v>46</v>
+      </c>
+      <c r="J39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="5"/>
+      <c r="I51" t="s">
+        <v>46</v>
+      </c>
+      <c r="J51" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="5"/>
+      <c r="I52" t="s">
+        <v>46</v>
+      </c>
+      <c r="J52" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="5"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="4"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="5"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="5"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="5"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="5"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="5"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="5"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="4"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="5"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="5"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="4"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="5"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="9"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>65</v>
+      </c>
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="5"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="5"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="5"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="5"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="5"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="5"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="5"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="4"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="5"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="5"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="5"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="5"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="5"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="5"/>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" s="4"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="5"/>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="5"/>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="5"/>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="4"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="5"/>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="5"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="5"/>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="5"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="4"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="5"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="5"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="19"/>
+      <c r="H93" s="5"/>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="5"/>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="19"/>
+      <c r="H95" s="5"/>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="4"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="5"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B97" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="5"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B98" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C98" s="19"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
+      <c r="G98" s="19"/>
+      <c r="H98" s="5"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B99" s="4"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="19"/>
+      <c r="H99" s="5"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B100" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="19"/>
+      <c r="H100" s="5"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B101" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="19"/>
+      <c r="G101" s="19"/>
+      <c r="H101" s="5"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B102" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="19"/>
+      <c r="H102" s="5"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B103" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="19"/>
+      <c r="G103" s="19"/>
+      <c r="H103" s="5"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B104" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C104" s="19"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="19"/>
+      <c r="G104" s="19"/>
+      <c r="H104" s="5"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B105" s="4"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="19"/>
+      <c r="G105" s="19"/>
+      <c r="H105" s="5"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B106" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="5"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B107" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="19"/>
+      <c r="G107" s="19"/>
+      <c r="H107" s="5"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B108" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="9"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B109" s="19"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="19"/>
+      <c r="G109" s="19"/>
+      <c r="H109" s="19"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" s="10"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="10"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="10"/>
+      <c r="B121" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="13"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="10"/>
+      <c r="B122" s="14"/>
+      <c r="C122" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D122" s="10"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="15"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="10"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="15"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="10"/>
+      <c r="B124" s="14"/>
+      <c r="C124" s="10"/>
+      <c r="D124" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="15"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="10"/>
+      <c r="B125" s="14"/>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="15"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="10"/>
+      <c r="B126" s="14"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+      <c r="H126" s="15"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="10"/>
+      <c r="B127" s="14"/>
+      <c r="C127" s="10"/>
+      <c r="D127" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="15"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="10"/>
+      <c r="B128" s="14"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="15"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="10"/>
+      <c r="B129" s="14"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10"/>
+      <c r="H129" s="15"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="10"/>
+      <c r="B130" s="14"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10"/>
+      <c r="H130" s="15"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="10"/>
+      <c r="B131" s="14"/>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G131" s="10"/>
+      <c r="H131" s="15"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="10"/>
+      <c r="B132" s="14"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G132" s="10"/>
+      <c r="H132" s="15"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="10"/>
+      <c r="B133" s="14"/>
+      <c r="C133" s="10"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G133" s="10"/>
+      <c r="H133" s="15"/>
+      <c r="I133" t="s">
+        <v>46</v>
+      </c>
+      <c r="J133" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="10"/>
+      <c r="B134" s="14"/>
+      <c r="C134" s="10"/>
+      <c r="D134" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="10"/>
+      <c r="F134" s="10"/>
+      <c r="G134" s="10"/>
+      <c r="H134" s="15"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="10"/>
+      <c r="B135" s="14"/>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10"/>
+      <c r="H135" s="15"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="10"/>
+      <c r="B136" s="14"/>
+      <c r="C136" s="10"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F136" s="10"/>
+      <c r="G136" s="10"/>
+      <c r="H136" s="15"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="10"/>
+      <c r="B137" s="14"/>
+      <c r="C137" s="10"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137" s="10"/>
+      <c r="G137" s="10"/>
+      <c r="H137" s="15"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="10"/>
+      <c r="B138" s="14"/>
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F138" s="10"/>
+      <c r="G138" s="10"/>
+      <c r="H138" s="15"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="10"/>
+      <c r="B139" s="14"/>
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G139" s="10"/>
+      <c r="H139" s="15"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="10"/>
+      <c r="B140" s="14"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G140" s="10"/>
+      <c r="H140" s="15"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="10"/>
+      <c r="B141" s="14"/>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G141" s="10"/>
+      <c r="H141" s="15"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="10"/>
+      <c r="B142" s="14"/>
+      <c r="C142" s="10"/>
+      <c r="D142" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E142" s="10"/>
+      <c r="F142" s="10"/>
+      <c r="G142" s="10"/>
+      <c r="H142" s="15"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="10"/>
+      <c r="B143" s="16"/>
+      <c r="C143" s="17"/>
+      <c r="D143" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E143" s="17"/>
+      <c r="F143" s="17"/>
+      <c r="G143" s="17"/>
+      <c r="H143" s="18"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B147" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="3"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B148" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H148" s="5"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B149" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H149" s="5"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B150" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H150" s="5"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B151" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H151" s="5"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B152" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C152" s="8"/>
+      <c r="D152" s="8"/>
+      <c r="E152" s="8"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
+      <c r="H152" s="9"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B156" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="3"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B157" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C157" s="19"/>
+      <c r="D157" s="19"/>
+      <c r="E157" s="19"/>
+      <c r="F157" s="19"/>
+      <c r="G157" s="19"/>
+      <c r="H157" s="5"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B158" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C158" s="19"/>
+      <c r="D158" s="19"/>
+      <c r="E158" s="19"/>
+      <c r="F158" s="19"/>
+      <c r="G158" s="19"/>
+      <c r="H158" s="5"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B159" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C159" s="19"/>
+      <c r="D159" s="19"/>
+      <c r="E159" s="19"/>
+      <c r="F159" s="19"/>
+      <c r="G159" s="19"/>
+      <c r="H159" s="5"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B160" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C160" s="19"/>
+      <c r="D160" s="19"/>
+      <c r="E160" s="19"/>
+      <c r="F160" s="19"/>
+      <c r="G160" s="19"/>
+      <c r="H160" s="5"/>
+    </row>
+    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B161" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C161" s="19"/>
+      <c r="D161" s="19"/>
+      <c r="E161" s="19"/>
+      <c r="F161" s="19"/>
+      <c r="G161" s="19"/>
+      <c r="H161" s="5"/>
+    </row>
+    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B162" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C162" s="19"/>
+      <c r="D162" s="19"/>
+      <c r="E162" s="19"/>
+      <c r="F162" s="19"/>
+      <c r="G162" s="19"/>
+      <c r="H162" s="5"/>
+    </row>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B163" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C163" s="19"/>
+      <c r="D163" s="19"/>
+      <c r="E163" s="19"/>
+      <c r="F163" s="19"/>
+      <c r="G163" s="19"/>
+      <c r="H163" s="5"/>
+    </row>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B164" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C164" s="19"/>
+      <c r="D164" s="19"/>
+      <c r="E164" s="19"/>
+      <c r="F164" s="19"/>
+      <c r="G164" s="19"/>
+      <c r="H164" s="5"/>
+    </row>
+    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B165" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C165" s="19"/>
+      <c r="D165" s="19"/>
+      <c r="E165" s="19"/>
+      <c r="F165" s="19"/>
+      <c r="G165" s="19"/>
+      <c r="H165" s="5"/>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B166" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C166" s="19"/>
+      <c r="D166" s="19"/>
+      <c r="E166" s="19"/>
+      <c r="F166" s="19"/>
+      <c r="G166" s="19"/>
+      <c r="H166" s="5"/>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B167" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C167" s="19"/>
+      <c r="D167" s="19"/>
+      <c r="E167" s="19"/>
+      <c r="F167" s="19"/>
+      <c r="G167" s="19"/>
+      <c r="H167" s="5"/>
+    </row>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B168" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C168" s="19"/>
+      <c r="D168" s="19"/>
+      <c r="E168" s="19"/>
+      <c r="F168" s="19"/>
+      <c r="G168" s="19"/>
+      <c r="H168" s="5"/>
+    </row>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B169" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C169" s="19"/>
+      <c r="D169" s="19"/>
+      <c r="E169" s="19"/>
+      <c r="F169" s="19"/>
+      <c r="G169" s="19"/>
+      <c r="H169" s="5"/>
+    </row>
+    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B170" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C170" s="19"/>
+      <c r="D170" s="19"/>
+      <c r="E170" s="19"/>
+      <c r="F170" s="19"/>
+      <c r="G170" s="19"/>
+      <c r="H170" s="5"/>
+    </row>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B171" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C171" s="19"/>
+      <c r="D171" s="19"/>
+      <c r="E171" s="19"/>
+      <c r="F171" s="19"/>
+      <c r="G171" s="19"/>
+      <c r="H171" s="5"/>
+    </row>
+    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B172" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C172" s="19"/>
+      <c r="D172" s="19"/>
+      <c r="E172" s="19"/>
+      <c r="F172" s="19"/>
+      <c r="G172" s="19"/>
+      <c r="H172" s="5"/>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B173" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C173" s="19"/>
+      <c r="D173" s="19"/>
+      <c r="E173" s="19"/>
+      <c r="F173" s="19"/>
+      <c r="G173" s="19"/>
+      <c r="H173" s="5"/>
+    </row>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B174" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C174" s="19"/>
+      <c r="D174" s="19"/>
+      <c r="E174" s="19"/>
+      <c r="F174" s="19"/>
+      <c r="G174" s="19"/>
+      <c r="H174" s="5"/>
+    </row>
+    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B175" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C175" s="19"/>
+      <c r="D175" s="19"/>
+      <c r="E175" s="19"/>
+      <c r="F175" s="19"/>
+      <c r="G175" s="19"/>
+      <c r="H175" s="5"/>
+    </row>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B176" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C176" s="19"/>
+      <c r="D176" s="19"/>
+      <c r="E176" s="19"/>
+      <c r="F176" s="19"/>
+      <c r="G176" s="19"/>
+      <c r="H176" s="5"/>
+    </row>
+    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B177" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C177" s="19"/>
+      <c r="D177" s="19"/>
+      <c r="E177" s="19"/>
+      <c r="F177" s="19"/>
+      <c r="G177" s="19"/>
+      <c r="H177" s="5"/>
+    </row>
+    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B178" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C178" s="19"/>
+      <c r="D178" s="19"/>
+      <c r="E178" s="19"/>
+      <c r="F178" s="19"/>
+      <c r="G178" s="19"/>
+      <c r="H178" s="5"/>
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B179" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C179" s="19"/>
+      <c r="D179" s="19"/>
+      <c r="E179" s="19"/>
+      <c r="F179" s="19"/>
+      <c r="G179" s="19"/>
+      <c r="H179" s="5"/>
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B180" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C180" s="19"/>
+      <c r="D180" s="19"/>
+      <c r="E180" s="19"/>
+      <c r="F180" s="19"/>
+      <c r="G180" s="19"/>
+      <c r="H180" s="5"/>
+    </row>
+    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B181" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C181" s="19"/>
+      <c r="D181" s="19"/>
+      <c r="E181" s="19"/>
+      <c r="F181" s="19"/>
+      <c r="G181" s="19"/>
+      <c r="H181" s="5"/>
+    </row>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B182" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C182" s="19"/>
+      <c r="D182" s="19"/>
+      <c r="E182" s="19"/>
+      <c r="F182" s="19"/>
+      <c r="G182" s="19"/>
+      <c r="H182" s="5"/>
+    </row>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B183" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C183" s="19"/>
+      <c r="D183" s="19"/>
+      <c r="E183" s="19"/>
+      <c r="F183" s="19"/>
+      <c r="G183" s="19"/>
+      <c r="H183" s="5"/>
+    </row>
+    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B184" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C184" s="8"/>
+      <c r="D184" s="8"/>
+      <c r="E184" s="8"/>
+      <c r="F184" s="8"/>
+      <c r="G184" s="8"/>
+      <c r="H184" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/2.typescript/4.oop.xlsx
+++ b/me/2.typescript/4.oop.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\2.typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6A855C-0058-4298-8C9B-C71F1C2EED99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97872BD-0773-4FEC-B243-049F306C7BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Class 1" sheetId="1" r:id="rId1"/>
     <sheet name="Class 2" sheetId="2" r:id="rId2"/>
     <sheet name="Static" sheetId="3" r:id="rId3"/>
+    <sheet name="Inheritance" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="174">
   <si>
     <t>構成</t>
   </si>
@@ -527,6 +528,96 @@
   </si>
   <si>
     <t>Phương thức showItemsInfo kiểu static nên bên trong phương thức ko được dùng this mà phải dùng tên Class TaskService để lấy giá trị tasks, do đó tasks cũng phải thuộc kiểu static</t>
+  </si>
+  <si>
+    <t>03-inheritance.ts</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\ts\05_oop\03-inheritance.ts</t>
+  </si>
+  <si>
+    <t>class Course {</t>
+  </si>
+  <si>
+    <t>    id: string;</t>
+  </si>
+  <si>
+    <t>    price: number;</t>
+  </si>
+  <si>
+    <t>    constructor(id: string, name: string, price: number){</t>
+  </si>
+  <si>
+    <t>        this.price = price;</t>
+  </si>
+  <si>
+    <t>    showCourseInfo(): void{</t>
+  </si>
+  <si>
+    <t>        console.log(`${this.id} - ${this.name} - ${this.price}`);</t>
+  </si>
+  <si>
+    <t>class CourseMobile extends Course {</t>
+  </si>
+  <si>
+    <t>    author: string;</t>
+  </si>
+  <si>
+    <t>    constructor(id: string, name: string, price: number, author: string){</t>
+  </si>
+  <si>
+    <t>        super(id, name, price);</t>
+  </si>
+  <si>
+    <t>        this.author = author;</t>
+  </si>
+  <si>
+    <t>    showCourseInfo(){</t>
+  </si>
+  <si>
+    <t>        super.showCourseInfo();</t>
+  </si>
+  <si>
+    <t>        console.log(this.author);</t>
+  </si>
+  <si>
+    <t>var courseObj   = new Course('CO12', "Programming", 23);</t>
+  </si>
+  <si>
+    <t>courseObj.showCourseInfo();</t>
+  </si>
+  <si>
+    <t>var courseMobileObj = new CourseMobile('CO13', "Android", 60, "John");</t>
+  </si>
+  <si>
+    <t>courseMobileObj.showCourseInfo();</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\mjs\05_oop\03-inheritance.js</t>
+  </si>
+  <si>
+    <t>03-inheritance.js</t>
+  </si>
+  <si>
+    <t>        &lt;script src="./mjs/05_oop/03-inheritance.js&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>    constructor(id, name, price) {</t>
+  </si>
+  <si>
+    <t>    showCourseInfo() {</t>
+  </si>
+  <si>
+    <t>    constructor(id, name, price, author) {</t>
+  </si>
+  <si>
+    <t>var courseObj = new Course('CO12', "Programming", 23);</t>
+  </si>
+  <si>
+    <t>Kế thừa</t>
+  </si>
+  <si>
+    <t>Compile</t>
   </si>
 </sst>
 </file>
@@ -2243,6 +2334,470 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>580198</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>9411</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E53BD351-3FAB-A444-18C5-D2CD40955EE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="13382625"/>
+          <a:ext cx="6619048" cy="914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0105BF0D-D834-B975-F845-DC2169ECD832}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1343025" y="14306550"/>
+          <a:ext cx="1981200" cy="3114675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68BAECF8-C487-E992-EB94-0A7DC0B645C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3076575" y="17497425"/>
+          <a:ext cx="495300" cy="3352800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F8E5A79-97B6-411F-628C-DFD79BDCF9D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1209675" y="6057900"/>
+          <a:ext cx="1304925" cy="2971800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2ED8ADF-6805-AF94-DA68-18BC1A1DE159}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1133475" y="7000875"/>
+          <a:ext cx="209550" cy="2819400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>599415</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>190276</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E92B377-CCFF-3FA1-8CBE-557F346FF57A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6296025" y="10782300"/>
+          <a:ext cx="5276190" cy="1790476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57A72A9E-A70E-FC83-D1AF-01B12D8DFA99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2381250" y="11410950"/>
+          <a:ext cx="4333875" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E595ACD7-4740-4314-435C-3C2E7718F3B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2800350" y="11658600"/>
+          <a:ext cx="3771900" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD2AA050-49E3-9C6C-1B22-2CB483F37745}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="866775" y="8181975"/>
+          <a:ext cx="152400" cy="2562225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5478,8 +6033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA2123B-9C7B-4D43-8CAB-019E6E90E4D9}">
   <dimension ref="A2:J184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="A146" sqref="A146:H152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7332,4 +7887,1420 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C3EFC8-5F82-49F3-8D43-FC5C69B7AF8F}">
+  <dimension ref="A2:J139"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26" s="10"/>
+      <c r="H26" s="15"/>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="15"/>
+      <c r="I27" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="18"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="4"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="4"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="5"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="4"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="5"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="5"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="4"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="5"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="5"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="9"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="10"/>
+      <c r="B79" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="13"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="10"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="15"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="10"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="15"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="10"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="15"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="10"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="15"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="10"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="15"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="10"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="15"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="10"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="15"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="10"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="15"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="10"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="15"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="10"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G89" s="10"/>
+      <c r="H89" s="15"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="10"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G90" s="10"/>
+      <c r="H90" s="15"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="10"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G91" s="10"/>
+      <c r="H91" s="15"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="10"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G92" s="10"/>
+      <c r="H92" s="15"/>
+      <c r="I92" t="s">
+        <v>46</v>
+      </c>
+      <c r="J92" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="10"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="15"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="10"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="15"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="10"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="15"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="10"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="15"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="10"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="15"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="10"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G98" s="10"/>
+      <c r="H98" s="15"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="10"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G99" s="10"/>
+      <c r="H99" s="15"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="10"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G100" s="10"/>
+      <c r="H100" s="15"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="10"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G101" s="10"/>
+      <c r="H101" s="15"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="10"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="15"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="10"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E103" s="17"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="17"/>
+      <c r="H103" s="18"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B107" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="3"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B108" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H108" s="5"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B109" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H109" s="5"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B110" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="H110" s="5"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B111" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H111" s="5"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B112" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="9"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B116" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="3"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B117" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C117" s="19"/>
+      <c r="D117" s="19"/>
+      <c r="E117" s="19"/>
+      <c r="F117" s="19"/>
+      <c r="G117" s="19"/>
+      <c r="H117" s="19"/>
+      <c r="I117" s="5"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B118" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C118" s="19"/>
+      <c r="D118" s="19"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="19"/>
+      <c r="G118" s="19"/>
+      <c r="H118" s="19"/>
+      <c r="I118" s="5"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B119" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C119" s="19"/>
+      <c r="D119" s="19"/>
+      <c r="E119" s="19"/>
+      <c r="F119" s="19"/>
+      <c r="G119" s="19"/>
+      <c r="H119" s="19"/>
+      <c r="I119" s="5"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B120" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C120" s="19"/>
+      <c r="D120" s="19"/>
+      <c r="E120" s="19"/>
+      <c r="F120" s="19"/>
+      <c r="G120" s="19"/>
+      <c r="H120" s="19"/>
+      <c r="I120" s="5"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B121" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C121" s="19"/>
+      <c r="D121" s="19"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="19"/>
+      <c r="G121" s="19"/>
+      <c r="H121" s="19"/>
+      <c r="I121" s="5"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B122" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C122" s="19"/>
+      <c r="D122" s="19"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="19"/>
+      <c r="G122" s="19"/>
+      <c r="H122" s="19"/>
+      <c r="I122" s="5"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B123" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C123" s="19"/>
+      <c r="D123" s="19"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="19"/>
+      <c r="G123" s="19"/>
+      <c r="H123" s="19"/>
+      <c r="I123" s="5"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B124" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C124" s="19"/>
+      <c r="D124" s="19"/>
+      <c r="E124" s="19"/>
+      <c r="F124" s="19"/>
+      <c r="G124" s="19"/>
+      <c r="H124" s="19"/>
+      <c r="I124" s="5"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B125" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C125" s="19"/>
+      <c r="D125" s="19"/>
+      <c r="E125" s="19"/>
+      <c r="F125" s="19"/>
+      <c r="G125" s="19"/>
+      <c r="H125" s="19"/>
+      <c r="I125" s="5"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B126" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C126" s="19"/>
+      <c r="D126" s="19"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="19"/>
+      <c r="G126" s="19"/>
+      <c r="H126" s="19"/>
+      <c r="I126" s="5"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B127" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C127" s="19"/>
+      <c r="D127" s="19"/>
+      <c r="E127" s="19"/>
+      <c r="F127" s="19"/>
+      <c r="G127" s="19"/>
+      <c r="H127" s="19"/>
+      <c r="I127" s="5"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B128" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C128" s="19"/>
+      <c r="D128" s="19"/>
+      <c r="E128" s="19"/>
+      <c r="F128" s="19"/>
+      <c r="G128" s="19"/>
+      <c r="H128" s="19"/>
+      <c r="I128" s="5"/>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B129" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C129" s="19"/>
+      <c r="D129" s="19"/>
+      <c r="E129" s="19"/>
+      <c r="F129" s="19"/>
+      <c r="G129" s="19"/>
+      <c r="H129" s="19"/>
+      <c r="I129" s="5"/>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B130" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C130" s="19"/>
+      <c r="D130" s="19"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="19"/>
+      <c r="G130" s="19"/>
+      <c r="H130" s="19"/>
+      <c r="I130" s="5"/>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B131" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C131" s="19"/>
+      <c r="D131" s="19"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="19"/>
+      <c r="G131" s="19"/>
+      <c r="H131" s="19"/>
+      <c r="I131" s="5"/>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B132" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C132" s="19"/>
+      <c r="D132" s="19"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="19"/>
+      <c r="G132" s="19"/>
+      <c r="H132" s="19"/>
+      <c r="I132" s="5"/>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B133" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C133" s="19"/>
+      <c r="D133" s="19"/>
+      <c r="E133" s="19"/>
+      <c r="F133" s="19"/>
+      <c r="G133" s="19"/>
+      <c r="H133" s="19"/>
+      <c r="I133" s="5"/>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B134" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C134" s="19"/>
+      <c r="D134" s="19"/>
+      <c r="E134" s="19"/>
+      <c r="F134" s="19"/>
+      <c r="G134" s="19"/>
+      <c r="H134" s="19"/>
+      <c r="I134" s="5"/>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B135" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C135" s="19"/>
+      <c r="D135" s="19"/>
+      <c r="E135" s="19"/>
+      <c r="F135" s="19"/>
+      <c r="G135" s="19"/>
+      <c r="H135" s="19"/>
+      <c r="I135" s="5"/>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B136" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C136" s="19"/>
+      <c r="D136" s="19"/>
+      <c r="E136" s="19"/>
+      <c r="F136" s="19"/>
+      <c r="G136" s="19"/>
+      <c r="H136" s="19"/>
+      <c r="I136" s="5"/>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B137" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C137" s="19"/>
+      <c r="D137" s="19"/>
+      <c r="E137" s="19"/>
+      <c r="F137" s="19"/>
+      <c r="G137" s="19"/>
+      <c r="H137" s="19"/>
+      <c r="I137" s="5"/>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B138" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C138" s="19"/>
+      <c r="D138" s="19"/>
+      <c r="E138" s="19"/>
+      <c r="F138" s="19"/>
+      <c r="G138" s="19"/>
+      <c r="H138" s="19"/>
+      <c r="I138" s="5"/>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B139" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c r="H139" s="8"/>
+      <c r="I139" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/2.typescript/4.oop.xlsx
+++ b/me/2.typescript/4.oop.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\2.typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97872BD-0773-4FEC-B243-049F306C7BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECA0CFA-E877-43BE-973E-4438A803A098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Class 1" sheetId="1" r:id="rId1"/>
     <sheet name="Class 2" sheetId="2" r:id="rId2"/>
     <sheet name="Static" sheetId="3" r:id="rId3"/>
     <sheet name="Inheritance" sheetId="4" r:id="rId4"/>
+    <sheet name="Access modifiers" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="209">
   <si>
     <t>構成</t>
   </si>
@@ -619,6 +620,111 @@
   <si>
     <t>Compile</t>
   </si>
+  <si>
+    <t>04-access-modifier.ts</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\ts\05_oop\04-access-modifier.ts</t>
+  </si>
+  <si>
+    <t>    public id: string;</t>
+  </si>
+  <si>
+    <t>    private name: string;</t>
+  </si>
+  <si>
+    <t>    protected price: number;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    } </t>
+  </si>
+  <si>
+    <t>class CourseMobile extends Course{</t>
+  </si>
+  <si>
+    <t>    checkPro(){</t>
+  </si>
+  <si>
+    <t>        console.log(this.price);</t>
+  </si>
+  <si>
+    <t>let courseObj   = new Course('C112', "f", 23);</t>
+  </si>
+  <si>
+    <t>let courseMobileObj = new CourseMobile('CO13', "Android", 60, "John");</t>
+  </si>
+  <si>
+    <t>console.log(courseObj.id);</t>
+  </si>
+  <si>
+    <t>courseMobileObj.checkPro();</t>
+  </si>
+  <si>
+    <t>/*                  Inside  Outside     Child Class</t>
+  </si>
+  <si>
+    <t>    public          +       +           +</t>
+  </si>
+  <si>
+    <t>    private         +       -           -</t>
+  </si>
+  <si>
+    <t>    protected       +       ?           +</t>
+  </si>
+  <si>
+    <t>04-access-modifier.js</t>
+  </si>
+  <si>
+    <t>        &lt;script src="./mjs/05_oop/04-access-modifier.js&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\mjs\05_oop\04-access-modifier.js</t>
+  </si>
+  <si>
+    <t>    checkPro() {</t>
+  </si>
+  <si>
+    <t>let courseObj = new Course('C112', "f", 23);</t>
+  </si>
+  <si>
+    <t>Việc sử dụng của các từ khóa public, private, protected</t>
+  </si>
+  <si>
+    <t>Khi khai báo các thuộc tính hay các phương thức của 1 Class thì phía trước nó phải đưa vào các access modifiers</t>
+  </si>
+  <si>
+    <t>public, private, protected. Nếu như ko đưa thì mặc định nó sẽ là public</t>
+  </si>
+  <si>
+    <t>Inside</t>
+  </si>
+  <si>
+    <t>Outside</t>
+  </si>
+  <si>
+    <t>Child Class</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>protected</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>protected thì sử dụng được trong class con</t>
+  </si>
+  <si>
+    <t>public thì sử dụng được bên ngoài class</t>
+  </si>
 </sst>
 </file>
 
@@ -640,15 +746,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -736,11 +848,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -766,6 +893,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2798,6 +2927,523 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>65981</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>123714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55944237-9C8F-D860-2C13-675FC4A6DE17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="22479000"/>
+          <a:ext cx="5552381" cy="885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B8BA2CD-A46A-45DF-6BDB-C228F7B49CEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1143000" y="23402925"/>
+          <a:ext cx="1981200" cy="3143250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AA74056-474A-F859-045D-B25BC82DE75C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2876550" y="30241875"/>
+          <a:ext cx="238125" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26667655-5521-43BD-E530-3D8E013D1886}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3248025" y="26650950"/>
+          <a:ext cx="180975" cy="3533775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1F64346-7B4C-4BB6-AB63-F82A4C34C630}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3152775" y="5095875"/>
+          <a:ext cx="2314575" cy="1162050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04E39C8C-A6D4-2614-ACF1-724399814B5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1181100" y="14649450"/>
+          <a:ext cx="542925" cy="4086225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDCC8B58-9718-650A-FAE9-02DCF08936A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="14239875"/>
+          <a:ext cx="695325" cy="5848350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>408919</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>47435</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DC91CCE-44F8-7DA1-80DC-BC171C93AB3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6257925" y="20240625"/>
+          <a:ext cx="5247619" cy="1523810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F6F6D3E-57D0-B72E-5562-28AA09C864D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2228850" y="20126325"/>
+          <a:ext cx="4438650" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72BBBB48-DB93-811F-C1D6-DE109C953FBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2400300" y="20335875"/>
+          <a:ext cx="4257675" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7893,8 +8539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C3EFC8-5F82-49F3-8D43-FC5C69B7AF8F}">
   <dimension ref="A2:J139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106:H112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9303,4 +9949,2076 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C062CD81-5EE3-45B4-B336-D5D5C6D42B78}">
+  <dimension ref="A2:U192"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="L103" sqref="L103"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="9.85546875" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" s="10"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="H27" s="15"/>
+      <c r="I27" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G28" s="10"/>
+      <c r="H28" s="15"/>
+      <c r="I28" t="s">
+        <v>46</v>
+      </c>
+      <c r="J28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="15"/>
+      <c r="I29" t="s">
+        <v>46</v>
+      </c>
+      <c r="J29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="18"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="4"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="4"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="5"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="5"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="5"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="4"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="5"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="5"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="5"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B67" s="4"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="5"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="5"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="5"/>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B70" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="9"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="3"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B75" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="5"/>
+      <c r="J75" t="s">
+        <v>46</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="3"/>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B76" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="5"/>
+      <c r="K76" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8"/>
+      <c r="P76" s="8"/>
+      <c r="Q76" s="8"/>
+      <c r="R76" s="8"/>
+      <c r="S76" s="8"/>
+      <c r="T76" s="8"/>
+      <c r="U76" s="9"/>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="5"/>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B78" s="4"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="5"/>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B79" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="5"/>
+      <c r="K79" s="24"/>
+      <c r="L79" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="M79" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="N79" s="24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="5"/>
+      <c r="K80" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="L80" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="M80" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="N80" s="23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B81" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="5"/>
+      <c r="K81" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="L81" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="M81" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="N81" s="23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="5"/>
+      <c r="K82" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="L82" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="M82" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="N82" s="23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B83" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="19"/>
+      <c r="I83" s="5"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B84" s="4"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="5"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="19"/>
+      <c r="I85" s="5"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B86" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="5"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B87" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="19"/>
+      <c r="I87" s="5"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B88" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="19"/>
+      <c r="I88" s="5"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B89" s="4"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="5"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B90" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="19"/>
+      <c r="I90" s="5"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B91" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="19"/>
+      <c r="I91" s="5"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B92" s="4"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="19"/>
+      <c r="I92" s="5"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B93" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="19"/>
+      <c r="H93" s="19"/>
+      <c r="I93" s="5"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B94" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="19"/>
+      <c r="I94" s="5"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B95" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="19"/>
+      <c r="H95" s="19"/>
+      <c r="I95" s="5"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B96" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="19"/>
+      <c r="I96" s="5"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B97" s="4"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="19"/>
+      <c r="I97" s="5"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B98" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C98" s="19"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
+      <c r="G98" s="19"/>
+      <c r="H98" s="19"/>
+      <c r="I98" s="5"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B99" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="19"/>
+      <c r="H99" s="19"/>
+      <c r="I99" s="5"/>
+      <c r="J99" t="s">
+        <v>46</v>
+      </c>
+      <c r="K99" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B100" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="19"/>
+      <c r="H100" s="19"/>
+      <c r="I100" s="5"/>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B101" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="19"/>
+      <c r="G101" s="19"/>
+      <c r="H101" s="19"/>
+      <c r="I101" s="5"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B102" s="4"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="19"/>
+      <c r="H102" s="19"/>
+      <c r="I102" s="5"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B103" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="19"/>
+      <c r="G103" s="19"/>
+      <c r="H103" s="19"/>
+      <c r="I103" s="5"/>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B104" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C104" s="19"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="19"/>
+      <c r="G104" s="19"/>
+      <c r="H104" s="19"/>
+      <c r="I104" s="5"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B105" s="4"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="19"/>
+      <c r="G105" s="19"/>
+      <c r="H105" s="19"/>
+      <c r="I105" s="5"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B106" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="19"/>
+      <c r="I106" s="5"/>
+      <c r="J106" t="s">
+        <v>46</v>
+      </c>
+      <c r="K106" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B107" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="19"/>
+      <c r="G107" s="19"/>
+      <c r="H107" s="19"/>
+      <c r="I107" s="5"/>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B108" s="4"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="19"/>
+      <c r="G108" s="19"/>
+      <c r="H108" s="19"/>
+      <c r="I108" s="5"/>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B109" s="4"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="19"/>
+      <c r="G109" s="19"/>
+      <c r="H109" s="19"/>
+      <c r="I109" s="5"/>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B110" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C110" s="19"/>
+      <c r="D110" s="19"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="19"/>
+      <c r="G110" s="19"/>
+      <c r="H110" s="19"/>
+      <c r="I110" s="5"/>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B111" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C111" s="19"/>
+      <c r="D111" s="19"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="19"/>
+      <c r="G111" s="19"/>
+      <c r="H111" s="19"/>
+      <c r="I111" s="5"/>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B112" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C112" s="19"/>
+      <c r="D112" s="19"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="19"/>
+      <c r="G112" s="19"/>
+      <c r="H112" s="19"/>
+      <c r="I112" s="5"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B113" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="19"/>
+      <c r="G113" s="19"/>
+      <c r="H113" s="19"/>
+      <c r="I113" s="5"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B114" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="9"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B126" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C126" s="12"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="13"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B127" s="14"/>
+      <c r="C127" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="15"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B128" s="14"/>
+      <c r="C128" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="15"/>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B129" s="14"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10"/>
+      <c r="H129" s="15"/>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B130" s="14"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E130" s="10"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10"/>
+      <c r="H130" s="15"/>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B131" s="14"/>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E131" s="10"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="15"/>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B132" s="14"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="15"/>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B133" s="14"/>
+      <c r="C133" s="10"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10"/>
+      <c r="H133" s="15"/>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B134" s="14"/>
+      <c r="C134" s="10"/>
+      <c r="D134" s="10"/>
+      <c r="E134" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" s="10"/>
+      <c r="G134" s="10"/>
+      <c r="H134" s="15"/>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B135" s="14"/>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10"/>
+      <c r="H135" s="15"/>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B136" s="14"/>
+      <c r="C136" s="10"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G136" s="10"/>
+      <c r="H136" s="15"/>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B137" s="14"/>
+      <c r="C137" s="10"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G137" s="10"/>
+      <c r="H137" s="15"/>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B138" s="14"/>
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="10"/>
+      <c r="F138" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G138" s="10"/>
+      <c r="H138" s="15"/>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B139" s="14"/>
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="G139" s="10"/>
+      <c r="H139" s="15"/>
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B140" s="14"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G140" s="10"/>
+      <c r="H140" s="15"/>
+    </row>
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B141" s="14"/>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E141" s="10"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="10"/>
+      <c r="H141" s="15"/>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B142" s="14"/>
+      <c r="C142" s="10"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F142" s="10"/>
+      <c r="G142" s="10"/>
+      <c r="H142" s="15"/>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B143" s="14"/>
+      <c r="C143" s="10"/>
+      <c r="D143" s="10"/>
+      <c r="E143" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F143" s="10"/>
+      <c r="G143" s="10"/>
+      <c r="H143" s="15"/>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B144" s="14"/>
+      <c r="C144" s="10"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F144" s="10"/>
+      <c r="G144" s="10"/>
+      <c r="H144" s="15"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B145" s="14"/>
+      <c r="C145" s="10"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F145" s="10"/>
+      <c r="G145" s="10"/>
+      <c r="H145" s="15"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B146" s="14"/>
+      <c r="C146" s="10"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G146" s="10"/>
+      <c r="H146" s="15"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B147" s="14"/>
+      <c r="C147" s="10"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G147" s="10"/>
+      <c r="H147" s="15"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B148" s="14"/>
+      <c r="C148" s="10"/>
+      <c r="D148" s="10"/>
+      <c r="E148" s="10"/>
+      <c r="F148" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G148" s="10"/>
+      <c r="H148" s="15"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B149" s="14"/>
+      <c r="C149" s="10"/>
+      <c r="D149" s="10"/>
+      <c r="E149" s="10"/>
+      <c r="F149" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G149" s="10"/>
+      <c r="H149" s="15"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B150" s="14"/>
+      <c r="C150" s="10"/>
+      <c r="D150" s="10"/>
+      <c r="E150" s="10"/>
+      <c r="F150" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G150" s="10"/>
+      <c r="H150" s="15"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B151" s="14"/>
+      <c r="C151" s="10"/>
+      <c r="D151" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E151" s="10"/>
+      <c r="F151" s="10"/>
+      <c r="G151" s="10"/>
+      <c r="H151" s="15"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B152" s="16"/>
+      <c r="C152" s="17"/>
+      <c r="D152" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E152" s="17"/>
+      <c r="F152" s="17"/>
+      <c r="G152" s="17"/>
+      <c r="H152" s="18"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B156" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="3"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B157" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H157" s="5"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B158" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H158" s="5"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B159" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="H159" s="5"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B160" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H160" s="5"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B161" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C161" s="8"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="8"/>
+      <c r="F161" s="8"/>
+      <c r="G161" s="8"/>
+      <c r="H161" s="9"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B165" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
+      <c r="H165" s="2"/>
+      <c r="I165" s="3"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B166" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C166" s="19"/>
+      <c r="D166" s="19"/>
+      <c r="E166" s="19"/>
+      <c r="F166" s="19"/>
+      <c r="G166" s="19"/>
+      <c r="H166" s="19"/>
+      <c r="I166" s="5"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B167" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C167" s="19"/>
+      <c r="D167" s="19"/>
+      <c r="E167" s="19"/>
+      <c r="F167" s="19"/>
+      <c r="G167" s="19"/>
+      <c r="H167" s="19"/>
+      <c r="I167" s="5"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B168" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C168" s="19"/>
+      <c r="D168" s="19"/>
+      <c r="E168" s="19"/>
+      <c r="F168" s="19"/>
+      <c r="G168" s="19"/>
+      <c r="H168" s="19"/>
+      <c r="I168" s="5"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B169" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C169" s="19"/>
+      <c r="D169" s="19"/>
+      <c r="E169" s="19"/>
+      <c r="F169" s="19"/>
+      <c r="G169" s="19"/>
+      <c r="H169" s="19"/>
+      <c r="I169" s="5"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B170" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C170" s="19"/>
+      <c r="D170" s="19"/>
+      <c r="E170" s="19"/>
+      <c r="F170" s="19"/>
+      <c r="G170" s="19"/>
+      <c r="H170" s="19"/>
+      <c r="I170" s="5"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B171" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C171" s="19"/>
+      <c r="D171" s="19"/>
+      <c r="E171" s="19"/>
+      <c r="F171" s="19"/>
+      <c r="G171" s="19"/>
+      <c r="H171" s="19"/>
+      <c r="I171" s="5"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B172" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C172" s="19"/>
+      <c r="D172" s="19"/>
+      <c r="E172" s="19"/>
+      <c r="F172" s="19"/>
+      <c r="G172" s="19"/>
+      <c r="H172" s="19"/>
+      <c r="I172" s="5"/>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B173" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C173" s="19"/>
+      <c r="D173" s="19"/>
+      <c r="E173" s="19"/>
+      <c r="F173" s="19"/>
+      <c r="G173" s="19"/>
+      <c r="H173" s="19"/>
+      <c r="I173" s="5"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B174" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C174" s="19"/>
+      <c r="D174" s="19"/>
+      <c r="E174" s="19"/>
+      <c r="F174" s="19"/>
+      <c r="G174" s="19"/>
+      <c r="H174" s="19"/>
+      <c r="I174" s="5"/>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B175" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C175" s="19"/>
+      <c r="D175" s="19"/>
+      <c r="E175" s="19"/>
+      <c r="F175" s="19"/>
+      <c r="G175" s="19"/>
+      <c r="H175" s="19"/>
+      <c r="I175" s="5"/>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B176" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C176" s="19"/>
+      <c r="D176" s="19"/>
+      <c r="E176" s="19"/>
+      <c r="F176" s="19"/>
+      <c r="G176" s="19"/>
+      <c r="H176" s="19"/>
+      <c r="I176" s="5"/>
+    </row>
+    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B177" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C177" s="19"/>
+      <c r="D177" s="19"/>
+      <c r="E177" s="19"/>
+      <c r="F177" s="19"/>
+      <c r="G177" s="19"/>
+      <c r="H177" s="19"/>
+      <c r="I177" s="5"/>
+    </row>
+    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B178" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C178" s="19"/>
+      <c r="D178" s="19"/>
+      <c r="E178" s="19"/>
+      <c r="F178" s="19"/>
+      <c r="G178" s="19"/>
+      <c r="H178" s="19"/>
+      <c r="I178" s="5"/>
+    </row>
+    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B179" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C179" s="19"/>
+      <c r="D179" s="19"/>
+      <c r="E179" s="19"/>
+      <c r="F179" s="19"/>
+      <c r="G179" s="19"/>
+      <c r="H179" s="19"/>
+      <c r="I179" s="5"/>
+    </row>
+    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B180" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C180" s="19"/>
+      <c r="D180" s="19"/>
+      <c r="E180" s="19"/>
+      <c r="F180" s="19"/>
+      <c r="G180" s="19"/>
+      <c r="H180" s="19"/>
+      <c r="I180" s="5"/>
+    </row>
+    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B181" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C181" s="19"/>
+      <c r="D181" s="19"/>
+      <c r="E181" s="19"/>
+      <c r="F181" s="19"/>
+      <c r="G181" s="19"/>
+      <c r="H181" s="19"/>
+      <c r="I181" s="5"/>
+    </row>
+    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B182" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C182" s="19"/>
+      <c r="D182" s="19"/>
+      <c r="E182" s="19"/>
+      <c r="F182" s="19"/>
+      <c r="G182" s="19"/>
+      <c r="H182" s="19"/>
+      <c r="I182" s="5"/>
+    </row>
+    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B183" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C183" s="19"/>
+      <c r="D183" s="19"/>
+      <c r="E183" s="19"/>
+      <c r="F183" s="19"/>
+      <c r="G183" s="19"/>
+      <c r="H183" s="19"/>
+      <c r="I183" s="5"/>
+    </row>
+    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B184" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C184" s="19"/>
+      <c r="D184" s="19"/>
+      <c r="E184" s="19"/>
+      <c r="F184" s="19"/>
+      <c r="G184" s="19"/>
+      <c r="H184" s="19"/>
+      <c r="I184" s="5"/>
+    </row>
+    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B185" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C185" s="19"/>
+      <c r="D185" s="19"/>
+      <c r="E185" s="19"/>
+      <c r="F185" s="19"/>
+      <c r="G185" s="19"/>
+      <c r="H185" s="19"/>
+      <c r="I185" s="5"/>
+    </row>
+    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B186" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C186" s="19"/>
+      <c r="D186" s="19"/>
+      <c r="E186" s="19"/>
+      <c r="F186" s="19"/>
+      <c r="G186" s="19"/>
+      <c r="H186" s="19"/>
+      <c r="I186" s="5"/>
+    </row>
+    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B187" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C187" s="19"/>
+      <c r="D187" s="19"/>
+      <c r="E187" s="19"/>
+      <c r="F187" s="19"/>
+      <c r="G187" s="19"/>
+      <c r="H187" s="19"/>
+      <c r="I187" s="5"/>
+    </row>
+    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B188" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C188" s="19"/>
+      <c r="D188" s="19"/>
+      <c r="E188" s="19"/>
+      <c r="F188" s="19"/>
+      <c r="G188" s="19"/>
+      <c r="H188" s="19"/>
+      <c r="I188" s="5"/>
+    </row>
+    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B189" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C189" s="19"/>
+      <c r="D189" s="19"/>
+      <c r="E189" s="19"/>
+      <c r="F189" s="19"/>
+      <c r="G189" s="19"/>
+      <c r="H189" s="19"/>
+      <c r="I189" s="5"/>
+    </row>
+    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B190" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C190" s="19"/>
+      <c r="D190" s="19"/>
+      <c r="E190" s="19"/>
+      <c r="F190" s="19"/>
+      <c r="G190" s="19"/>
+      <c r="H190" s="19"/>
+      <c r="I190" s="5"/>
+    </row>
+    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B191" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C191" s="19"/>
+      <c r="D191" s="19"/>
+      <c r="E191" s="19"/>
+      <c r="F191" s="19"/>
+      <c r="G191" s="19"/>
+      <c r="H191" s="19"/>
+      <c r="I191" s="5"/>
+    </row>
+    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B192" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C192" s="8"/>
+      <c r="D192" s="8"/>
+      <c r="E192" s="8"/>
+      <c r="F192" s="8"/>
+      <c r="G192" s="8"/>
+      <c r="H192" s="8"/>
+      <c r="I192" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/2.typescript/4.oop.xlsx
+++ b/me/2.typescript/4.oop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\2.typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECA0CFA-E877-43BE-973E-4438A803A098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCC9FA0-605B-49EE-A716-A812C7DAA914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Class 1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Static" sheetId="3" r:id="rId3"/>
     <sheet name="Inheritance" sheetId="4" r:id="rId4"/>
     <sheet name="Access modifiers" sheetId="5" r:id="rId5"/>
+    <sheet name="Accessors" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="243">
   <si>
     <t>構成</t>
   </si>
@@ -724,6 +725,218 @@
   </si>
   <si>
     <t>public thì sử dụng được bên ngoài class</t>
+  </si>
+  <si>
+    <t>05-accessors.ts</t>
+  </si>
+  <si>
+    <t>Vì ở 04-access-modifier.ts sẽ sử dụng lại code của 03-inheritance.ts nên cần comment lại phần code trong 03-inheritance.ts</t>
+  </si>
+  <si>
+    <t>Vì trong 05-accessors.ts sẽ sử lại code của 04-access-modifier.ts nên cần comment lại hết code trong 04-access-modifier.ts</t>
+  </si>
+  <si>
+    <t>    protected       +       -           +</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\ts\05_oop\05-accessors.ts</t>
+  </si>
+  <si>
+    <t>    constructor(name: string){</t>
+  </si>
+  <si>
+    <t>        this._name = name;</t>
+  </si>
+  <si>
+    <t>        console.log(`${this._name}`);</t>
+  </si>
+  <si>
+    <t>    public get name() : string {</t>
+  </si>
+  <si>
+    <t>        return this._name;</t>
+  </si>
+  <si>
+    <t>    public set name(v : string) {</t>
+  </si>
+  <si>
+    <t>        this._name = v;</t>
+  </si>
+  <si>
+    <t>var courseObj   = new Course("Typescript");</t>
+  </si>
+  <si>
+    <t>console.log(courseObj);</t>
+  </si>
+  <si>
+    <t>console.log("Name: " + courseObj.name);</t>
+  </si>
+  <si>
+    <t>courseObj.name  = "Typescript training";</t>
+  </si>
+  <si>
+    <t>05-accessors.js</t>
+  </si>
+  <si>
+    <t>        &lt;script src="./mjs/05_oop/05-accessors.js&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\mjs\05_oop\05-accessors.js</t>
+  </si>
+  <si>
+    <t>    constructor(name) {</t>
+  </si>
+  <si>
+    <t>    get name() {</t>
+  </si>
+  <si>
+    <t>    set name(v) {</t>
+  </si>
+  <si>
+    <t>var courseObj = new Course("Typescript");</t>
+  </si>
+  <si>
+    <t>courseObj.name = "Typescript training";</t>
+  </si>
+  <si>
+    <t>private nên ko sử dụng được bên ngoài class</t>
+  </si>
+  <si>
+    <t>chú ý là thuộc tính name phải có _ ở trước(_name)</t>
+  </si>
+  <si>
+    <r>
+      <t>        this.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name = name;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    private </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name: string;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        console.log(`${this.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name}`);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        return this.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        this.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name = v;</t>
+    </r>
+  </si>
+  <si>
+    <t>Để biểu diễn được dưới dạng cách viết courseObj.name bên ngoài class thì phải dùng đến Accessors getter cho thuộc tính name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Để biểu diễn được dưới dạng cách viết courseObj.name bên ngoài class để thay đổi giá trị cho thuộc tính thì phải dùng đến Accessors </t>
+  </si>
+  <si>
+    <t>setter cho thuộc tính name</t>
   </si>
 </sst>
 </file>
@@ -3416,6 +3629,735 @@
         <a:xfrm>
           <a:off x="2400300" y="20335875"/>
           <a:ext cx="4257675" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F63693A0-A549-C40F-EAD7-1DEF374D3D00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3276600" y="5486400"/>
+          <a:ext cx="3495675" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>475429</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>161810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FB16BE8-B431-D3E6-F21A-2FC4E8A91E21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="21907500"/>
+          <a:ext cx="6571429" cy="923810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45426883-1797-3AE7-C786-918F071FC06D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="22879050"/>
+          <a:ext cx="1866900" cy="3457575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FF20122-05F3-4857-24A4-F3645764762C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2905125" y="26450925"/>
+          <a:ext cx="657225" cy="3724275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4963AE31-1BDE-EBE0-69E3-A7DA668FB044}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1343025" y="15763875"/>
+          <a:ext cx="95250" cy="1866900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B51A4B41-EAEC-E78C-BA54-D8DBA2A71B0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1152525" y="15801975"/>
+          <a:ext cx="171450" cy="2590800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C88C6B-A994-5173-9BC1-6C542C5B128D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1304925" y="18449925"/>
+          <a:ext cx="190500" cy="2209800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09AC8E1C-880D-619D-720C-7C06EB8562BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1476375" y="17668875"/>
+          <a:ext cx="1238250" cy="2600325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C43E0495-28C8-6A21-D14B-708AA1401EB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2324100" y="17706975"/>
+          <a:ext cx="9067800" cy="2533650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>166800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E0FFC59-B365-E1FD-5281-11577868E921}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7410451" y="21288375"/>
+          <a:ext cx="4686300" cy="1547925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82B93A52-DA41-3E77-8326-78334CD82025}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2076450" y="19954875"/>
+          <a:ext cx="5791200" cy="1866900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6F06F2B-9FC8-0992-3807-2B5CEF22A714}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3114675" y="20354925"/>
+          <a:ext cx="4629150" cy="1647825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C179A7C8-484B-8215-B1A9-04D0218A7A92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3095625" y="21097875"/>
+          <a:ext cx="4676775" cy="1123950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Straight Arrow Connector 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CE1D8DE-96BE-4EE9-50EE-ED270DD333B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2362200" y="18459450"/>
+          <a:ext cx="3400425" cy="2552700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9955,8 +10897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C062CD81-5EE3-45B4-B336-D5D5C6D42B78}">
   <dimension ref="A2:U192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="L103" sqref="L103"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="K99" sqref="K99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10126,7 +11068,7 @@
       <c r="G16" s="10"/>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="14"/>
       <c r="C17" s="10"/>
@@ -10138,7 +11080,7 @@
       <c r="G17" s="10"/>
       <c r="H17" s="15"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="14"/>
       <c r="C18" s="10"/>
@@ -10150,7 +11092,7 @@
       <c r="G18" s="10"/>
       <c r="H18" s="15"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="14"/>
       <c r="C19" s="10"/>
@@ -10162,7 +11104,7 @@
       <c r="G19" s="10"/>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="14"/>
       <c r="C20" s="10"/>
@@ -10174,7 +11116,7 @@
       <c r="G20" s="10"/>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="14"/>
       <c r="C21" s="10"/>
@@ -10186,7 +11128,7 @@
       <c r="G21" s="10"/>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="14"/>
       <c r="C22" s="10"/>
@@ -10198,7 +11140,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="14"/>
       <c r="C23" s="10"/>
@@ -10210,7 +11152,7 @@
       <c r="G23" s="10"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="14"/>
       <c r="C24" s="10"/>
@@ -10222,7 +11164,7 @@
       <c r="G24" s="10"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="14"/>
       <c r="C25" s="10"/>
@@ -10234,7 +11176,7 @@
       <c r="G25" s="10"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="14"/>
       <c r="C26" s="10"/>
@@ -10246,7 +11188,7 @@
       <c r="G26" s="10"/>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="14"/>
       <c r="C27" s="10"/>
@@ -10263,8 +11205,11 @@
       <c r="J27" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="14"/>
       <c r="C28" s="10"/>
@@ -10282,7 +11227,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="14"/>
       <c r="C29" s="10"/>
@@ -10300,7 +11245,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="16"/>
       <c r="C30" s="17"/>
@@ -11361,7 +12306,7 @@
       <c r="G128" s="10"/>
       <c r="H128" s="15"/>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B129" s="14"/>
       <c r="C129" s="10"/>
       <c r="D129" s="10" t="s">
@@ -11372,7 +12317,7 @@
       <c r="G129" s="10"/>
       <c r="H129" s="15"/>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B130" s="14"/>
       <c r="C130" s="10"/>
       <c r="D130" s="10" t="s">
@@ -11383,7 +12328,7 @@
       <c r="G130" s="10"/>
       <c r="H130" s="15"/>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B131" s="14"/>
       <c r="C131" s="10"/>
       <c r="D131" s="10" t="s">
@@ -11394,7 +12339,7 @@
       <c r="G131" s="10"/>
       <c r="H131" s="15"/>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B132" s="14"/>
       <c r="C132" s="10"/>
       <c r="D132" s="10" t="s">
@@ -11405,7 +12350,7 @@
       <c r="G132" s="10"/>
       <c r="H132" s="15"/>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B133" s="14"/>
       <c r="C133" s="10"/>
       <c r="D133" s="10"/>
@@ -11416,7 +12361,7 @@
       <c r="G133" s="10"/>
       <c r="H133" s="15"/>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B134" s="14"/>
       <c r="C134" s="10"/>
       <c r="D134" s="10"/>
@@ -11427,7 +12372,7 @@
       <c r="G134" s="10"/>
       <c r="H134" s="15"/>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B135" s="14"/>
       <c r="C135" s="10"/>
       <c r="D135" s="10"/>
@@ -11438,7 +12383,7 @@
       <c r="G135" s="10"/>
       <c r="H135" s="15"/>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B136" s="14"/>
       <c r="C136" s="10"/>
       <c r="D136" s="10"/>
@@ -11449,7 +12394,7 @@
       <c r="G136" s="10"/>
       <c r="H136" s="15"/>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B137" s="14"/>
       <c r="C137" s="10"/>
       <c r="D137" s="10"/>
@@ -11460,7 +12405,7 @@
       <c r="G137" s="10"/>
       <c r="H137" s="15"/>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B138" s="14"/>
       <c r="C138" s="10"/>
       <c r="D138" s="10"/>
@@ -11471,7 +12416,7 @@
       <c r="G138" s="10"/>
       <c r="H138" s="15"/>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B139" s="14"/>
       <c r="C139" s="10"/>
       <c r="D139" s="10"/>
@@ -11482,7 +12427,7 @@
       <c r="G139" s="10"/>
       <c r="H139" s="15"/>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B140" s="14"/>
       <c r="C140" s="10"/>
       <c r="D140" s="10"/>
@@ -11492,8 +12437,14 @@
       </c>
       <c r="G140" s="10"/>
       <c r="H140" s="15"/>
-    </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I140" t="s">
+        <v>46</v>
+      </c>
+      <c r="J140" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B141" s="14"/>
       <c r="C141" s="10"/>
       <c r="D141" s="10" t="s">
@@ -11504,7 +12455,7 @@
       <c r="G141" s="10"/>
       <c r="H141" s="15"/>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B142" s="14"/>
       <c r="C142" s="10"/>
       <c r="D142" s="10"/>
@@ -11515,7 +12466,7 @@
       <c r="G142" s="10"/>
       <c r="H142" s="15"/>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B143" s="14"/>
       <c r="C143" s="10"/>
       <c r="D143" s="10"/>
@@ -11526,7 +12477,7 @@
       <c r="G143" s="10"/>
       <c r="H143" s="15"/>
     </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B144" s="14"/>
       <c r="C144" s="10"/>
       <c r="D144" s="10"/>
@@ -12021,4 +12972,1852 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F57533-5C19-49F3-96B6-9CBD4063649A}">
+  <dimension ref="A4:L183"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="J140" sqref="J140"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="10"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G28" s="10"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G29" s="10"/>
+      <c r="H29" s="15"/>
+      <c r="I29" t="s">
+        <v>46</v>
+      </c>
+      <c r="J29" t="s">
+        <v>133</v>
+      </c>
+      <c r="L29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G30" s="10"/>
+      <c r="H30" s="15"/>
+      <c r="I30" t="s">
+        <v>46</v>
+      </c>
+      <c r="J30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="15"/>
+      <c r="I31" t="s">
+        <v>46</v>
+      </c>
+      <c r="J31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="18"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="4"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="4"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="4"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="4"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="5"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="5"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="5"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="5"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="4"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="5"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="5"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="5"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="4"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="5"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="5"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="5"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="4"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="5"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="5"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="5"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="5"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="5"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="9"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="4"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="5"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="5"/>
+      <c r="I83" t="s">
+        <v>46</v>
+      </c>
+      <c r="J83" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="4"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="5"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="5"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="5"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="5"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="4"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="5"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B89" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="5"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B90" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="5"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B91" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="5"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92" s="4"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="5"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B93" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="3"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="5"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B95" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="19"/>
+      <c r="H95" s="5"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" s="4"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="5"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B97" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="5"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B98" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C98" s="19"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
+      <c r="G98" s="19"/>
+      <c r="H98" s="5"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B99" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="9"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B100" s="4"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="19"/>
+      <c r="H100" s="5"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B101" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="19"/>
+      <c r="G101" s="19"/>
+      <c r="H101" s="5"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B102" s="4"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="19"/>
+      <c r="H102" s="5"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B103" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="19"/>
+      <c r="G103" s="19"/>
+      <c r="H103" s="5"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B104" s="4"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="19"/>
+      <c r="G104" s="19"/>
+      <c r="H104" s="5"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B105" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="19"/>
+      <c r="G105" s="19"/>
+      <c r="H105" s="5"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B106" s="4"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="5"/>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B107" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="19"/>
+      <c r="G107" s="19"/>
+      <c r="H107" s="5"/>
+      <c r="I107" t="s">
+        <v>46</v>
+      </c>
+      <c r="J107" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B108" s="4"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="19"/>
+      <c r="G108" s="19"/>
+      <c r="H108" s="5"/>
+      <c r="J108" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B109" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="19"/>
+      <c r="G109" s="19"/>
+      <c r="H109" s="5"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B110" s="4"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="19"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="19"/>
+      <c r="G110" s="19"/>
+      <c r="H110" s="5"/>
+      <c r="I110" t="s">
+        <v>46</v>
+      </c>
+      <c r="J110" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B111" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="9"/>
+      <c r="J111" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" s="10"/>
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="10"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="10"/>
+      <c r="B124" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" s="12"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="13"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="10"/>
+      <c r="B125" s="14"/>
+      <c r="C125" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="15"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="10"/>
+      <c r="B126" s="14"/>
+      <c r="C126" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D126" s="10"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+      <c r="H126" s="15"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="10"/>
+      <c r="B127" s="14"/>
+      <c r="C127" s="10"/>
+      <c r="D127" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="15"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="10"/>
+      <c r="B128" s="14"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="15"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="10"/>
+      <c r="B129" s="14"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10"/>
+      <c r="H129" s="15"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="10"/>
+      <c r="B130" s="14"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E130" s="10"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10"/>
+      <c r="H130" s="15"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="10"/>
+      <c r="B131" s="14"/>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F131" s="10"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="15"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="10"/>
+      <c r="B132" s="14"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="15"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="10"/>
+      <c r="B133" s="14"/>
+      <c r="C133" s="10"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10"/>
+      <c r="H133" s="15"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="10"/>
+      <c r="B134" s="14"/>
+      <c r="C134" s="10"/>
+      <c r="D134" s="10"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G134" s="10"/>
+      <c r="H134" s="15"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="10"/>
+      <c r="B135" s="14"/>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G135" s="10"/>
+      <c r="H135" s="15"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="10"/>
+      <c r="B136" s="14"/>
+      <c r="C136" s="10"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G136" s="10"/>
+      <c r="H136" s="15"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="10"/>
+      <c r="B137" s="14"/>
+      <c r="C137" s="10"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="G137" s="10"/>
+      <c r="H137" s="15"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="10"/>
+      <c r="B138" s="14"/>
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="10"/>
+      <c r="F138" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="G138" s="10"/>
+      <c r="H138" s="15"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="10"/>
+      <c r="B139" s="14"/>
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G139" s="10"/>
+      <c r="H139" s="15"/>
+      <c r="I139" t="s">
+        <v>46</v>
+      </c>
+      <c r="J139" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="10"/>
+      <c r="B140" s="14"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E140" s="10"/>
+      <c r="F140" s="10"/>
+      <c r="G140" s="10"/>
+      <c r="H140" s="15"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="10"/>
+      <c r="B141" s="14"/>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F141" s="10"/>
+      <c r="G141" s="10"/>
+      <c r="H141" s="15"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="10"/>
+      <c r="B142" s="14"/>
+      <c r="C142" s="10"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F142" s="10"/>
+      <c r="G142" s="10"/>
+      <c r="H142" s="15"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="10"/>
+      <c r="B143" s="14"/>
+      <c r="C143" s="10"/>
+      <c r="D143" s="10"/>
+      <c r="E143" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F143" s="10"/>
+      <c r="G143" s="10"/>
+      <c r="H143" s="15"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="10"/>
+      <c r="B144" s="14"/>
+      <c r="C144" s="10"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F144" s="10"/>
+      <c r="G144" s="10"/>
+      <c r="H144" s="15"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="10"/>
+      <c r="B145" s="14"/>
+      <c r="C145" s="10"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G145" s="10"/>
+      <c r="H145" s="15"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="10"/>
+      <c r="B146" s="14"/>
+      <c r="C146" s="10"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G146" s="10"/>
+      <c r="H146" s="15"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="10"/>
+      <c r="B147" s="14"/>
+      <c r="C147" s="10"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G147" s="10"/>
+      <c r="H147" s="15"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="10"/>
+      <c r="B148" s="14"/>
+      <c r="C148" s="10"/>
+      <c r="D148" s="10"/>
+      <c r="E148" s="10"/>
+      <c r="F148" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G148" s="10"/>
+      <c r="H148" s="15"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="10"/>
+      <c r="B149" s="14"/>
+      <c r="C149" s="10"/>
+      <c r="D149" s="10"/>
+      <c r="E149" s="10"/>
+      <c r="F149" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G149" s="10"/>
+      <c r="H149" s="15"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="10"/>
+      <c r="B150" s="14"/>
+      <c r="C150" s="10"/>
+      <c r="D150" s="10"/>
+      <c r="E150" s="10"/>
+      <c r="F150" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="G150" s="10"/>
+      <c r="H150" s="15"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="10"/>
+      <c r="B151" s="14"/>
+      <c r="C151" s="10"/>
+      <c r="D151" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E151" s="10"/>
+      <c r="F151" s="10"/>
+      <c r="G151" s="10"/>
+      <c r="H151" s="15"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="10"/>
+      <c r="B152" s="16"/>
+      <c r="C152" s="17"/>
+      <c r="D152" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E152" s="17"/>
+      <c r="F152" s="17"/>
+      <c r="G152" s="17"/>
+      <c r="H152" s="18"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B156" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="3"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B157" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H157" s="5"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B158" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H158" s="5"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B159" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="H159" s="5"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B160" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H160" s="5"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B161" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C161" s="8"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="8"/>
+      <c r="F161" s="8"/>
+      <c r="G161" s="8"/>
+      <c r="H161" s="9"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B165" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="3"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B166" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C166" s="19"/>
+      <c r="D166" s="19"/>
+      <c r="E166" s="19"/>
+      <c r="F166" s="19"/>
+      <c r="G166" s="5"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B167" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C167" s="19"/>
+      <c r="D167" s="19"/>
+      <c r="E167" s="19"/>
+      <c r="F167" s="19"/>
+      <c r="G167" s="5"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B168" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C168" s="19"/>
+      <c r="D168" s="19"/>
+      <c r="E168" s="19"/>
+      <c r="F168" s="19"/>
+      <c r="G168" s="5"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B169" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C169" s="19"/>
+      <c r="D169" s="19"/>
+      <c r="E169" s="19"/>
+      <c r="F169" s="19"/>
+      <c r="G169" s="5"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B170" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C170" s="19"/>
+      <c r="D170" s="19"/>
+      <c r="E170" s="19"/>
+      <c r="F170" s="19"/>
+      <c r="G170" s="5"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B171" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C171" s="19"/>
+      <c r="D171" s="19"/>
+      <c r="E171" s="19"/>
+      <c r="F171" s="19"/>
+      <c r="G171" s="5"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B172" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C172" s="19"/>
+      <c r="D172" s="19"/>
+      <c r="E172" s="19"/>
+      <c r="F172" s="19"/>
+      <c r="G172" s="5"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B173" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C173" s="19"/>
+      <c r="D173" s="19"/>
+      <c r="E173" s="19"/>
+      <c r="F173" s="19"/>
+      <c r="G173" s="5"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B174" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C174" s="19"/>
+      <c r="D174" s="19"/>
+      <c r="E174" s="19"/>
+      <c r="F174" s="19"/>
+      <c r="G174" s="5"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B175" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C175" s="19"/>
+      <c r="D175" s="19"/>
+      <c r="E175" s="19"/>
+      <c r="F175" s="19"/>
+      <c r="G175" s="5"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B176" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C176" s="19"/>
+      <c r="D176" s="19"/>
+      <c r="E176" s="19"/>
+      <c r="F176" s="19"/>
+      <c r="G176" s="5"/>
+    </row>
+    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B177" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C177" s="19"/>
+      <c r="D177" s="19"/>
+      <c r="E177" s="19"/>
+      <c r="F177" s="19"/>
+      <c r="G177" s="5"/>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B178" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C178" s="19"/>
+      <c r="D178" s="19"/>
+      <c r="E178" s="19"/>
+      <c r="F178" s="19"/>
+      <c r="G178" s="5"/>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B179" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C179" s="19"/>
+      <c r="D179" s="19"/>
+      <c r="E179" s="19"/>
+      <c r="F179" s="19"/>
+      <c r="G179" s="5"/>
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B180" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C180" s="19"/>
+      <c r="D180" s="19"/>
+      <c r="E180" s="19"/>
+      <c r="F180" s="19"/>
+      <c r="G180" s="5"/>
+    </row>
+    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B181" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C181" s="19"/>
+      <c r="D181" s="19"/>
+      <c r="E181" s="19"/>
+      <c r="F181" s="19"/>
+      <c r="G181" s="5"/>
+    </row>
+    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B182" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C182" s="19"/>
+      <c r="D182" s="19"/>
+      <c r="E182" s="19"/>
+      <c r="F182" s="19"/>
+      <c r="G182" s="5"/>
+    </row>
+    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B183" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C183" s="8"/>
+      <c r="D183" s="8"/>
+      <c r="E183" s="8"/>
+      <c r="F183" s="8"/>
+      <c r="G183" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/2.typescript/4.oop.xlsx
+++ b/me/2.typescript/4.oop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\2.typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCC9FA0-605B-49EE-A716-A812C7DAA914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32331794-ACE8-49FD-A815-45AF9A882355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Class 1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Inheritance" sheetId="4" r:id="rId4"/>
     <sheet name="Access modifiers" sheetId="5" r:id="rId5"/>
     <sheet name="Accessors" sheetId="6" r:id="rId6"/>
+    <sheet name="Abstract" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="279">
   <si>
     <t>構成</t>
   </si>
@@ -937,6 +938,233 @@
   </si>
   <si>
     <t>setter cho thuộc tính name</t>
+  </si>
+  <si>
+    <t>06-abstract.ts</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\ts\05_oop\06-abstract.ts</t>
+  </si>
+  <si>
+    <t>    public keyboard(): void{</t>
+  </si>
+  <si>
+    <t>        console.log("Laptop.keyboard");</t>
+  </si>
+  <si>
+    <t>    public chipset(): void{</t>
+  </si>
+  <si>
+    <t>        console.log("Laptop.chipset");</t>
+  </si>
+  <si>
+    <t>class LaptopDell extends Laptop {</t>
+  </si>
+  <si>
+    <t>        console.log("LaptopDell.keyboard");</t>
+  </si>
+  <si>
+    <t>    public mainboard(): string{</t>
+  </si>
+  <si>
+    <t>        console.log("LaptopDell.mainboard");</t>
+  </si>
+  <si>
+    <t>        return "123";</t>
+  </si>
+  <si>
+    <t>laptopObj.keyboard();</t>
+  </si>
+  <si>
+    <t>laptopObj.mainboard();</t>
+  </si>
+  <si>
+    <t>laptopObj.chipset();</t>
+  </si>
+  <si>
+    <t>06-abstract.js</t>
+  </si>
+  <si>
+    <t>        &lt;script src="./mjs/05_oop/06-abstract.js&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\mjs\05_oop\06-abstract.js</t>
+  </si>
+  <si>
+    <t>class Laptop {</t>
+  </si>
+  <si>
+    <t>    keyboard() {</t>
+  </si>
+  <si>
+    <t>    chipset() {</t>
+  </si>
+  <si>
+    <t>    mainboard() {</t>
+  </si>
+  <si>
+    <t>let laptopObj = new LaptopDell();</t>
+  </si>
+  <si>
+    <t>Không tạo được 1 đối tượng của 1 abstract class</t>
+  </si>
+  <si>
+    <t>Để tạo được đối tượng thì phải tạo 1 class kế thừa từ abstract class</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">let laptopObj : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LaptopDell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = new LaptopDell();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">có thể tạo đối tượng bằng cách let laptopObj : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Laptop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = new LaptopDell();</t>
+    </r>
+  </si>
+  <si>
+    <t>override</t>
+  </si>
+  <si>
+    <t>abstract class</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abstract</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> class Laptop {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abstract</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mainboard(abc: string) : string;</t>
+    </r>
+  </si>
+  <si>
+    <t>abstract method, vì là abstract method nên ko có bất kỳ phần xử lý gì ở bên trong thân hàm mà chỉ thực hiện khai báo hàm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class LaptopDell kế thừa từ class Laptop mà trong LaptopDell có 1 abstract method đó là mainboard nên trong class Laptop </t>
+  </si>
+  <si>
+    <t>bắt buộc phải định nghĩa thân hàm(phần xử lý hàm) mainboard. Tuy nhiên khác biệt đối với ngôn ngữ khác đó là ở đây</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LaptopDell là </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ko có tham số</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">abstract method mainboard được khai báo trong Laptop là </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">có tham số </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tuy nhiên thì mainboard method được override trong class</t>
+    </r>
+  </si>
+  <si>
+    <t>chipset() là ko được override trong Laptop class</t>
   </si>
 </sst>
 </file>
@@ -4358,6 +4586,576 @@
         <a:xfrm>
           <a:off x="2362200" y="18459450"/>
           <a:ext cx="3400425" cy="2552700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>589723</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28458</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E505B964-5314-ED1C-9BD6-6BA2429FE46D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="13763625"/>
+          <a:ext cx="6619048" cy="933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB3D8946-39E5-E8F3-DBA8-BDED2E46353B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1247775" y="14725650"/>
+          <a:ext cx="1876425" cy="3619500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3147DA73-2E49-DACD-CD27-101BAB3A374E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2914650" y="18468975"/>
+          <a:ext cx="571500" cy="3914775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97B3E8E2-6C22-D111-0A91-C6EED4BD9897}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1219200" y="7762875"/>
+          <a:ext cx="9525" cy="2390775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F930258-780B-8ED2-D70A-F118C75FA623}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1257300" y="8534400"/>
+          <a:ext cx="457200" cy="2409825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A31DB52C-6A3E-2EFA-172C-F0D77C4C22FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2428875" y="8534400"/>
+          <a:ext cx="6000750" cy="2771775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1623404A-C6F7-C652-F692-D7B13E97EF5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="11010900"/>
+          <a:ext cx="3962400" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>153268</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06780A27-C4DF-A1E7-4F7A-6F1293413612}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7877176" y="12296775"/>
+          <a:ext cx="4238624" cy="1381993"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C9B0BF0-4DE9-7D09-E79C-1168B37CBDE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="12896850"/>
+          <a:ext cx="6334125" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCB7945B-5D8C-494C-8454-F97691729535}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2000250" y="11201400"/>
+          <a:ext cx="6210300" cy="1743075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924E801B-1956-6880-3E42-1A3B6DE3C31F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2124075" y="10458450"/>
+          <a:ext cx="6067425" cy="2314575"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -12978,8 +13776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F57533-5C19-49F3-96B6-9CBD4063649A}">
   <dimension ref="A4:L183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="J140" sqref="J140"/>
+    <sheetView topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="A155" sqref="A155:H161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14820,4 +15618,1408 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2EC3D3-A3FB-4B80-9C7A-FC74FC34FA63}">
+  <dimension ref="A2:J144"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="J70" sqref="J70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="10"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" s="10"/>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G30" s="10"/>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G31" s="10"/>
+      <c r="H31" s="15"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="G32" s="10"/>
+      <c r="H32" s="15"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="G33" s="10"/>
+      <c r="H33" s="15"/>
+      <c r="I33" t="s">
+        <v>46</v>
+      </c>
+      <c r="J33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="15"/>
+      <c r="I34" t="s">
+        <v>46</v>
+      </c>
+      <c r="J34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="18"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="3"/>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="5"/>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="4"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="5"/>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="4"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="5"/>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="5"/>
+      <c r="I59" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="5"/>
+      <c r="I60" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="5"/>
+      <c r="I61" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="4"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="5"/>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="4"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="9"/>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="10"/>
+      <c r="B81" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="13"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="10"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="15"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="10"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="15"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="10"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="15"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="10"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="15"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="10"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="15"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="10"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="15"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="10"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="15"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="10"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="15"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="10"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="15"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="10"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G91" s="10"/>
+      <c r="H91" s="15"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="10"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G92" s="10"/>
+      <c r="H92" s="15"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="10"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G93" s="10"/>
+      <c r="H93" s="15"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="10"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="G94" s="10"/>
+      <c r="H94" s="15"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="10"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="G95" s="10"/>
+      <c r="H95" s="15"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="10"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="G96" s="10"/>
+      <c r="H96" s="15"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="10"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="G97" s="10"/>
+      <c r="H97" s="15"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="10"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="15"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="10"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="15"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="10"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="15"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="10"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="15"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="10"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="15"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="10"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G103" s="10"/>
+      <c r="H103" s="15"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="10"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G104" s="10"/>
+      <c r="H104" s="15"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="10"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G105" s="10"/>
+      <c r="H105" s="15"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="10"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G106" s="10"/>
+      <c r="H106" s="15"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="10"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G107" s="10"/>
+      <c r="H107" s="15"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="10"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="G108" s="10"/>
+      <c r="H108" s="15"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="10"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="G109" s="10"/>
+      <c r="H109" s="15"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="10"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="15"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="10"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E111" s="17"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="17"/>
+      <c r="H111" s="18"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B115" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="3"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B116" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H116" s="5"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B117" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H117" s="5"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B118" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="H118" s="5"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B119" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H119" s="5"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B120" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="9"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B124" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="3"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B125" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C125" s="19"/>
+      <c r="D125" s="19"/>
+      <c r="E125" s="19"/>
+      <c r="F125" s="19"/>
+      <c r="G125" s="5"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B126" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C126" s="19"/>
+      <c r="D126" s="19"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="19"/>
+      <c r="G126" s="5"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B127" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C127" s="19"/>
+      <c r="D127" s="19"/>
+      <c r="E127" s="19"/>
+      <c r="F127" s="19"/>
+      <c r="G127" s="5"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B128" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C128" s="19"/>
+      <c r="D128" s="19"/>
+      <c r="E128" s="19"/>
+      <c r="F128" s="19"/>
+      <c r="G128" s="5"/>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B129" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C129" s="19"/>
+      <c r="D129" s="19"/>
+      <c r="E129" s="19"/>
+      <c r="F129" s="19"/>
+      <c r="G129" s="5"/>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B130" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C130" s="19"/>
+      <c r="D130" s="19"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="19"/>
+      <c r="G130" s="5"/>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B131" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C131" s="19"/>
+      <c r="D131" s="19"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="19"/>
+      <c r="G131" s="5"/>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B132" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C132" s="19"/>
+      <c r="D132" s="19"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="19"/>
+      <c r="G132" s="5"/>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B133" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C133" s="19"/>
+      <c r="D133" s="19"/>
+      <c r="E133" s="19"/>
+      <c r="F133" s="19"/>
+      <c r="G133" s="5"/>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B134" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C134" s="19"/>
+      <c r="D134" s="19"/>
+      <c r="E134" s="19"/>
+      <c r="F134" s="19"/>
+      <c r="G134" s="5"/>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B135" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C135" s="19"/>
+      <c r="D135" s="19"/>
+      <c r="E135" s="19"/>
+      <c r="F135" s="19"/>
+      <c r="G135" s="5"/>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B136" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C136" s="19"/>
+      <c r="D136" s="19"/>
+      <c r="E136" s="19"/>
+      <c r="F136" s="19"/>
+      <c r="G136" s="5"/>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B137" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C137" s="19"/>
+      <c r="D137" s="19"/>
+      <c r="E137" s="19"/>
+      <c r="F137" s="19"/>
+      <c r="G137" s="5"/>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B138" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C138" s="19"/>
+      <c r="D138" s="19"/>
+      <c r="E138" s="19"/>
+      <c r="F138" s="19"/>
+      <c r="G138" s="5"/>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B139" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C139" s="19"/>
+      <c r="D139" s="19"/>
+      <c r="E139" s="19"/>
+      <c r="F139" s="19"/>
+      <c r="G139" s="5"/>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B140" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C140" s="19"/>
+      <c r="D140" s="19"/>
+      <c r="E140" s="19"/>
+      <c r="F140" s="19"/>
+      <c r="G140" s="5"/>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B141" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C141" s="19"/>
+      <c r="D141" s="19"/>
+      <c r="E141" s="19"/>
+      <c r="F141" s="19"/>
+      <c r="G141" s="5"/>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B142" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C142" s="19"/>
+      <c r="D142" s="19"/>
+      <c r="E142" s="19"/>
+      <c r="F142" s="19"/>
+      <c r="G142" s="5"/>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B143" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C143" s="19"/>
+      <c r="D143" s="19"/>
+      <c r="E143" s="19"/>
+      <c r="F143" s="19"/>
+      <c r="G143" s="5"/>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B144" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/2.typescript/4.oop.xlsx
+++ b/me/2.typescript/4.oop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\2.typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32331794-ACE8-49FD-A815-45AF9A882355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86663DA-1F37-4814-AA43-3E8259B7F73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Class 1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Access modifiers" sheetId="5" r:id="rId5"/>
     <sheet name="Accessors" sheetId="6" r:id="rId6"/>
     <sheet name="Abstract" sheetId="7" r:id="rId7"/>
+    <sheet name="Interface" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="316">
   <si>
     <t>構成</t>
   </si>
@@ -1165,6 +1166,117 @@
   </si>
   <si>
     <t>chipset() là ko được override trong Laptop class</t>
+  </si>
+  <si>
+    <t>07-interface.ts</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\ts\05_oop\07-interface.ts</t>
+  </si>
+  <si>
+    <t>interface People {</t>
+  </si>
+  <si>
+    <t>    eat(): void;</t>
+  </si>
+  <si>
+    <t>    sleep(): void;</t>
+  </si>
+  <si>
+    <t>interface Bird {</t>
+  </si>
+  <si>
+    <t>    fly(): void;</t>
+  </si>
+  <si>
+    <t>class Machine {</t>
+  </si>
+  <si>
+    <t>    caculate(x: number, y: number): number {</t>
+  </si>
+  <si>
+    <t>        return x + y;</t>
+  </si>
+  <si>
+    <t>class Superman extends Machine implements People, Bird {</t>
+  </si>
+  <si>
+    <t>        super();</t>
+  </si>
+  <si>
+    <t>    eat(): void {</t>
+  </si>
+  <si>
+    <t>        console.log("eat");</t>
+  </si>
+  <si>
+    <t>    sleep(): void {</t>
+  </si>
+  <si>
+    <t>        console.log("sleep");</t>
+  </si>
+  <si>
+    <t>    fly(): void {</t>
+  </si>
+  <si>
+    <t>        console.log("fly");</t>
+  </si>
+  <si>
+    <t>let john: Superman = new Superman("john");</t>
+  </si>
+  <si>
+    <t>john.eat();</t>
+  </si>
+  <si>
+    <t>john.sleep();</t>
+  </si>
+  <si>
+    <t>john.fly();</t>
+  </si>
+  <si>
+    <t>console.log(john.caculate(2,3));</t>
+  </si>
+  <si>
+    <t>07-interface.js</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\mjs\05_oop\07-interface.js</t>
+  </si>
+  <si>
+    <t>    caculate(x, y) {</t>
+  </si>
+  <si>
+    <t>class Superman extends Machine {</t>
+  </si>
+  <si>
+    <t>    eat() {</t>
+  </si>
+  <si>
+    <t>    sleep() {</t>
+  </si>
+  <si>
+    <t>    fly() {</t>
+  </si>
+  <si>
+    <t>let john = new Superman("john");</t>
+  </si>
+  <si>
+    <t>console.log(john.caculate(2, 3));</t>
+  </si>
+  <si>
+    <t>        &lt;script src="./mjs/05_oop/07-interface.js&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sử dụng interface khi ta muốn tạo 1 class nào đó khi mà muốn class đó phải tuân thủ theo 1 chuẩn nào đó ở đây là </t>
+  </si>
+  <si>
+    <t>phải có các thuộc tính và phương thức nằm trong interface People và Bird</t>
+  </si>
+  <si>
+    <t>Superman implements từ interface People nên nó bắt buộc phải có thuộc tính name, phải định nghĩa  phương thức eat và sleep</t>
+  </si>
+  <si>
+    <t>Superman implements từ interface Bird nên nó bắt buộc phải định nghĩa  phương thức fly</t>
   </si>
 </sst>
 </file>
@@ -5156,6 +5268,426 @@
         <a:xfrm>
           <a:off x="2124075" y="10458450"/>
           <a:ext cx="6067425" cy="2314575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>56318</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>57035</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF2A7C56-4BE8-E56F-B25F-5A4885736C36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="16087725"/>
+          <a:ext cx="6657143" cy="923810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{912BEC5C-9B0A-3C96-C02D-7EC0A568E93A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1304925" y="17040225"/>
+          <a:ext cx="1752600" cy="3790950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C1B3316-F79B-C89C-1DC6-C48B06DA4138}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2895600" y="20897850"/>
+          <a:ext cx="723900" cy="4152900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4B865F3-FCF3-076E-DC0B-0BD5671B1DF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="7772400"/>
+          <a:ext cx="38100" cy="2981325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB1CDBC5-E192-055B-3040-98B9C7736259}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3724275" y="10648950"/>
+          <a:ext cx="1800225" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48CA0841-855E-4572-D348-ACFE95F8A306}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4038600" y="10620375"/>
+          <a:ext cx="1495425" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABD879F1-B0A2-4323-88C6-C55D6A9F55A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1276350" y="9496425"/>
+          <a:ext cx="933450" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A733A158-1ECB-C138-ECA6-195A642BCDB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1104900" y="9686925"/>
+          <a:ext cx="704850" cy="5410200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -15624,8 +16156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2EC3D3-A3FB-4B80-9C7A-FC74FC34FA63}">
   <dimension ref="A2:J144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="L121" sqref="L121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16572,7 +17104,7 @@
       <c r="G96" s="10"/>
       <c r="H96" s="15"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="10"/>
       <c r="B97" s="14"/>
       <c r="C97" s="10"/>
@@ -16583,8 +17115,14 @@
       </c>
       <c r="G97" s="10"/>
       <c r="H97" s="15"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I97" t="s">
+        <v>46</v>
+      </c>
+      <c r="J97" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="10"/>
       <c r="B98" s="14"/>
       <c r="C98" s="10"/>
@@ -16596,7 +17134,7 @@
       <c r="G98" s="10"/>
       <c r="H98" s="15"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="10"/>
       <c r="B99" s="14"/>
       <c r="C99" s="10"/>
@@ -16608,7 +17146,7 @@
       <c r="G99" s="10"/>
       <c r="H99" s="15"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="10"/>
       <c r="B100" s="14"/>
       <c r="C100" s="10"/>
@@ -16620,7 +17158,7 @@
       <c r="G100" s="10"/>
       <c r="H100" s="15"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="10"/>
       <c r="B101" s="14"/>
       <c r="C101" s="10"/>
@@ -16632,7 +17170,7 @@
       <c r="G101" s="10"/>
       <c r="H101" s="15"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="10"/>
       <c r="B102" s="14"/>
       <c r="C102" s="10"/>
@@ -16644,7 +17182,7 @@
       <c r="G102" s="10"/>
       <c r="H102" s="15"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="10"/>
       <c r="B103" s="14"/>
       <c r="C103" s="10"/>
@@ -16656,7 +17194,7 @@
       <c r="G103" s="10"/>
       <c r="H103" s="15"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="10"/>
       <c r="B104" s="14"/>
       <c r="C104" s="10"/>
@@ -16668,7 +17206,7 @@
       <c r="G104" s="10"/>
       <c r="H104" s="15"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="10"/>
       <c r="B105" s="14"/>
       <c r="C105" s="10"/>
@@ -16680,7 +17218,7 @@
       <c r="G105" s="10"/>
       <c r="H105" s="15"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="10"/>
       <c r="B106" s="14"/>
       <c r="C106" s="10"/>
@@ -16692,7 +17230,7 @@
       <c r="G106" s="10"/>
       <c r="H106" s="15"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="10"/>
       <c r="B107" s="14"/>
       <c r="C107" s="10"/>
@@ -16704,7 +17242,7 @@
       <c r="G107" s="10"/>
       <c r="H107" s="15"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="10"/>
       <c r="B108" s="14"/>
       <c r="C108" s="10"/>
@@ -16716,7 +17254,7 @@
       <c r="G108" s="10"/>
       <c r="H108" s="15"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="10"/>
       <c r="B109" s="14"/>
       <c r="C109" s="10"/>
@@ -16728,7 +17266,7 @@
       <c r="G109" s="10"/>
       <c r="H109" s="15"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="10"/>
       <c r="B110" s="14"/>
       <c r="C110" s="10"/>
@@ -16740,7 +17278,7 @@
       <c r="G110" s="10"/>
       <c r="H110" s="15"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="10"/>
       <c r="B111" s="16"/>
       <c r="C111" s="17"/>
@@ -17022,4 +17560,1662 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67DC4CAC-4C50-4A03-9367-65F3A73008F8}">
+  <dimension ref="A4:T162"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="J111" sqref="J111"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="10"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" s="10"/>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G30" s="10"/>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G31" s="10"/>
+      <c r="H31" s="15"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="G32" s="10"/>
+      <c r="H32" s="15"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="G33" s="10"/>
+      <c r="H33" s="15"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="G34" s="10"/>
+      <c r="H34" s="15"/>
+      <c r="I34" t="s">
+        <v>46</v>
+      </c>
+      <c r="J34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="15"/>
+      <c r="I35" t="s">
+        <v>46</v>
+      </c>
+      <c r="J35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="18"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B49" s="4"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B55" s="4"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="5"/>
+      <c r="J56" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="5"/>
+      <c r="J57" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="9"/>
+    </row>
+    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B58" s="4"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="5"/>
+      <c r="J58" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="5"/>
+      <c r="J59" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="5"/>
+    </row>
+    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="5"/>
+    </row>
+    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="5"/>
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B63" s="4"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="5"/>
+    </row>
+    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="5"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="5"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="5"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="5"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="5"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="5"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="4"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="5"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="5"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="5"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="5"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="5"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="4"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="5"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="5"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="5"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="5"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="5"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="9"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="10"/>
+      <c r="B93" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="13"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="10"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="15"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="10"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="15"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="10"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="15"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="10"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="15"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="10"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="15"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="10"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="15"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="10"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="15"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="10"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="15"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="10"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="15"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="10"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G103" s="10"/>
+      <c r="H103" s="15"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="10"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G104" s="10"/>
+      <c r="H104" s="15"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="10"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G105" s="10"/>
+      <c r="H105" s="15"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="10"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="G106" s="10"/>
+      <c r="H106" s="15"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="10"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="G107" s="10"/>
+      <c r="H107" s="15"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="10"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="G108" s="10"/>
+      <c r="H108" s="15"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="10"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="G109" s="10"/>
+      <c r="H109" s="15"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="10"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="G110" s="10"/>
+      <c r="H110" s="15"/>
+      <c r="I110" t="s">
+        <v>46</v>
+      </c>
+      <c r="J110" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="10"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="15"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="10"/>
+      <c r="B112" s="14"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="15"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="10"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="15"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="10"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="15"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="10"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="15"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="10"/>
+      <c r="B116" s="14"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G116" s="10"/>
+      <c r="H116" s="15"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="10"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G117" s="10"/>
+      <c r="H117" s="15"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="10"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G118" s="10"/>
+      <c r="H118" s="15"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="10"/>
+      <c r="B119" s="14"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G119" s="10"/>
+      <c r="H119" s="15"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="10"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G120" s="10"/>
+      <c r="H120" s="15"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="10"/>
+      <c r="B121" s="14"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="G121" s="10"/>
+      <c r="H121" s="15"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="10"/>
+      <c r="B122" s="14"/>
+      <c r="C122" s="10"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="G122" s="10"/>
+      <c r="H122" s="15"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="10"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="G123" s="10"/>
+      <c r="H123" s="15"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="10"/>
+      <c r="B124" s="14"/>
+      <c r="C124" s="10"/>
+      <c r="D124" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="15"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="10"/>
+      <c r="B125" s="16"/>
+      <c r="C125" s="17"/>
+      <c r="D125" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E125" s="17"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="17"/>
+      <c r="H125" s="18"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="10"/>
+      <c r="B126" s="21"/>
+      <c r="C126" s="21"/>
+      <c r="D126" s="21"/>
+      <c r="E126" s="21"/>
+      <c r="F126" s="21"/>
+      <c r="G126" s="21"/>
+      <c r="H126" s="21"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="10"/>
+      <c r="B127" s="21"/>
+      <c r="C127" s="21"/>
+      <c r="D127" s="21"/>
+      <c r="E127" s="21"/>
+      <c r="F127" s="21"/>
+      <c r="G127" s="21"/>
+      <c r="H127" s="21"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B129" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="3"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B130" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H130" s="5"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B131" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H131" s="5"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B132" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="H132" s="5"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B133" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H133" s="5"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B134" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c r="H134" s="9"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="10"/>
+      <c r="B135" s="21"/>
+      <c r="C135" s="21"/>
+      <c r="D135" s="21"/>
+      <c r="E135" s="21"/>
+      <c r="F135" s="21"/>
+      <c r="G135" s="21"/>
+      <c r="H135" s="21"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B138" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="3"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B139" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C139" s="19"/>
+      <c r="D139" s="19"/>
+      <c r="E139" s="19"/>
+      <c r="F139" s="19"/>
+      <c r="G139" s="5"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B140" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C140" s="19"/>
+      <c r="D140" s="19"/>
+      <c r="E140" s="19"/>
+      <c r="F140" s="19"/>
+      <c r="G140" s="5"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B141" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C141" s="19"/>
+      <c r="D141" s="19"/>
+      <c r="E141" s="19"/>
+      <c r="F141" s="19"/>
+      <c r="G141" s="5"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B142" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C142" s="19"/>
+      <c r="D142" s="19"/>
+      <c r="E142" s="19"/>
+      <c r="F142" s="19"/>
+      <c r="G142" s="5"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B143" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C143" s="19"/>
+      <c r="D143" s="19"/>
+      <c r="E143" s="19"/>
+      <c r="F143" s="19"/>
+      <c r="G143" s="5"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B144" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C144" s="19"/>
+      <c r="D144" s="19"/>
+      <c r="E144" s="19"/>
+      <c r="F144" s="19"/>
+      <c r="G144" s="5"/>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B145" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C145" s="19"/>
+      <c r="D145" s="19"/>
+      <c r="E145" s="19"/>
+      <c r="F145" s="19"/>
+      <c r="G145" s="5"/>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B146" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C146" s="19"/>
+      <c r="D146" s="19"/>
+      <c r="E146" s="19"/>
+      <c r="F146" s="19"/>
+      <c r="G146" s="5"/>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B147" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C147" s="19"/>
+      <c r="D147" s="19"/>
+      <c r="E147" s="19"/>
+      <c r="F147" s="19"/>
+      <c r="G147" s="5"/>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B148" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C148" s="19"/>
+      <c r="D148" s="19"/>
+      <c r="E148" s="19"/>
+      <c r="F148" s="19"/>
+      <c r="G148" s="5"/>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B149" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C149" s="19"/>
+      <c r="D149" s="19"/>
+      <c r="E149" s="19"/>
+      <c r="F149" s="19"/>
+      <c r="G149" s="5"/>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B150" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C150" s="19"/>
+      <c r="D150" s="19"/>
+      <c r="E150" s="19"/>
+      <c r="F150" s="19"/>
+      <c r="G150" s="5"/>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B151" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C151" s="19"/>
+      <c r="D151" s="19"/>
+      <c r="E151" s="19"/>
+      <c r="F151" s="19"/>
+      <c r="G151" s="5"/>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B152" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C152" s="19"/>
+      <c r="D152" s="19"/>
+      <c r="E152" s="19"/>
+      <c r="F152" s="19"/>
+      <c r="G152" s="5"/>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B153" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C153" s="19"/>
+      <c r="D153" s="19"/>
+      <c r="E153" s="19"/>
+      <c r="F153" s="19"/>
+      <c r="G153" s="5"/>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B154" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C154" s="19"/>
+      <c r="D154" s="19"/>
+      <c r="E154" s="19"/>
+      <c r="F154" s="19"/>
+      <c r="G154" s="5"/>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B155" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C155" s="19"/>
+      <c r="D155" s="19"/>
+      <c r="E155" s="19"/>
+      <c r="F155" s="19"/>
+      <c r="G155" s="5"/>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B156" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C156" s="19"/>
+      <c r="D156" s="19"/>
+      <c r="E156" s="19"/>
+      <c r="F156" s="19"/>
+      <c r="G156" s="5"/>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B157" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C157" s="19"/>
+      <c r="D157" s="19"/>
+      <c r="E157" s="19"/>
+      <c r="F157" s="19"/>
+      <c r="G157" s="5"/>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B158" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C158" s="19"/>
+      <c r="D158" s="19"/>
+      <c r="E158" s="19"/>
+      <c r="F158" s="19"/>
+      <c r="G158" s="5"/>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B159" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C159" s="19"/>
+      <c r="D159" s="19"/>
+      <c r="E159" s="19"/>
+      <c r="F159" s="19"/>
+      <c r="G159" s="5"/>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B160" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C160" s="19"/>
+      <c r="D160" s="19"/>
+      <c r="E160" s="19"/>
+      <c r="F160" s="19"/>
+      <c r="G160" s="5"/>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B161" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C161" s="19"/>
+      <c r="D161" s="19"/>
+      <c r="E161" s="19"/>
+      <c r="F161" s="19"/>
+      <c r="G161" s="5"/>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B162" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C162" s="8"/>
+      <c r="D162" s="8"/>
+      <c r="E162" s="8"/>
+      <c r="F162" s="8"/>
+      <c r="G162" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>